--- a/analysis_lubm1000.xlsx
+++ b/analysis_lubm1000.xlsx
@@ -4,17 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19155" windowHeight="12525"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19155" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stardog_lubm1000" sheetId="1" r:id="rId1"/>
-    <sheet name="log-oracle-tz_18M_CDM" sheetId="3" r:id="rId2"/>
-    <sheet name="log-stardog_18M_CDM" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="virtuoso_lubm1000" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="log" localSheetId="1">'log-oracle-tz_18M_CDM'!$A$2:$D$61</definedName>
-    <definedName name="log" localSheetId="2">'log-stardog_18M_CDM'!$A$2:$D$61</definedName>
+    <definedName name="log" localSheetId="1">virtuoso_lubm1000!$A$2:$D$61</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -32,21 +30,11 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="log1" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\git\cdm_test_suite\stardog\log.csv" tab="0" comma="1">
-      <textFields count="4">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>iteration</t>
   </si>
@@ -58,9 +46,6 @@
   </si>
   <si>
     <t>retrieved results</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>average response time</t>
@@ -643,6 +628,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -669,100 +655,104 @@
             <c:v>virtuoso</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>virtuoso_lubm1000!$I$2:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>stardog_lubm1000!$J$2:$J$13</c:f>
+              <c:f>virtuoso_lubm1000!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.0059999999999998</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.277999999999999</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
+                  <c:v>16.776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15399999999999997</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26799999999999996</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>517.41000000000008</c:v>
+                  <c:v>34.070000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.027999999999992</c:v>
+                  <c:v>2.6000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.974</c:v>
+                  <c:v>55.486000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.603999999999999</c:v>
+                  <c:v>56.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.308</c:v>
+                  <c:v>1.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.582000000000001</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11400000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>oracle</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'log-oracle-tz_18M_CDM'!$J$2:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.80199999999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>153.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.201999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300.202</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300.32799999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>160.82799999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>163.39000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.972</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.16599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>162.96800000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.566000000000003</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.242000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,52 +760,70 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>stardog</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>virtuoso_lubm1000!$I$2:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'log-stardog_18M_CDM'!$J$2:$J$13</c:f>
+              <c:f>#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.944</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>203.57599999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>168.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.20400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.19399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.22000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.818000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,20 +838,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41393536"/>
-        <c:axId val="73339648"/>
+        <c:axId val="81685504"/>
+        <c:axId val="164525952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41393536"/>
+        <c:axId val="81685504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73339648"/>
+        <c:crossAx val="164525952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -851,7 +860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73339648"/>
+        <c:axId val="164525952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,13 +871,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41393536"/>
+        <c:crossAx val="81685504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -917,6 +927,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -943,12 +954,63 @@
             <c:v>virtuoso</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>virtuoso_lubm1000!$I$2:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>stardog_lubm1000!$K$2:$K$13</c:f>
+              <c:f>virtuoso_lubm1000!$K$2:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -959,84 +1021,37 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>719</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7790</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>272982</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>224</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>oracle</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'log-oracle-tz_18M_CDM'!$K$2:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>14848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
+                  <c:v>2604</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24701</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24701</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>759</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,52 +1059,70 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>stardog</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>virtuoso_lubm1000!$I$2:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'log-stardog_18M_CDM'!$K$2:$K$13</c:f>
+              <c:f>#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14610</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2647</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2647</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>696</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3437</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,20 +1137,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="295459072"/>
-        <c:axId val="295467264"/>
+        <c:axId val="295578240"/>
+        <c:axId val="295867136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="295459072"/>
+        <c:axId val="295578240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295467264"/>
+        <c:crossAx val="295867136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1125,7 +1159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295467264"/>
+        <c:axId val="295867136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1138,13 +1172,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295459072"/>
+        <c:crossAx val="295578240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1226,10 +1261,6 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="log" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="log" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1521,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -2753,10 +2784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2786,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -2800,21 +2831,21 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.80199999999999994</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K2">
         <f>LOOKUP(I2,B:B,D:D)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2825,21 +2856,21 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
         <f>AVERAGE(C7:C11)</f>
-        <v>3.8200000000000003</v>
+        <v>39.5</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K13" si="0">LOOKUP(I3,B:B,D:D)</f>
-        <v>14848</v>
+        <f t="shared" ref="K3:K16" si="0">LOOKUP(I3,B:B,D:D)</f>
+        <v>2528</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2850,21 +2881,21 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4">
         <f>AVERAGE(C12:C16)</f>
-        <v>153.16999999999999</v>
+        <v>16.776</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2875,21 +2906,21 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5">
         <f>AVERAGE(C17:C21)</f>
-        <v>24.201999999999998</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2900,21 +2931,21 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
         <f>AVERAGE(C22:C26)</f>
-        <v>300.202</v>
-      </c>
-      <c r="K6" s="1" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>N/A</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2925,21 +2956,21 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3.71</v>
+        <v>39.58</v>
       </c>
       <c r="D7">
-        <v>14848</v>
+        <v>2528</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7">
         <f>AVERAGE(C27:C31)</f>
-        <v>300.32799999999997</v>
-      </c>
-      <c r="K7" s="1" t="str">
+        <v>34.070000000000007</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2950,21 +2981,21 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>4.08</v>
+        <v>39.36</v>
       </c>
       <c r="D8">
-        <v>14848</v>
+        <v>2528</v>
       </c>
       <c r="I8">
         <v>6</v>
       </c>
       <c r="J8">
         <f>AVERAGE(C32:C36)</f>
-        <v>160.82799999999997</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>24701</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2975,21 +3006,21 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.79</v>
+        <v>39.479999999999997</v>
       </c>
       <c r="D9">
-        <v>14848</v>
+        <v>2528</v>
       </c>
       <c r="I9">
         <v>7</v>
       </c>
       <c r="J9">
         <f>AVERAGE(C37:C41)</f>
-        <v>163.39000000000001</v>
+        <v>55.486000000000004</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>24701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3000,21 +3031,21 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3.65</v>
+        <v>39.630000000000003</v>
       </c>
       <c r="D10">
-        <v>14848</v>
+        <v>2528</v>
       </c>
       <c r="I10">
         <v>8</v>
       </c>
       <c r="J10">
         <f>AVERAGE(C42:C46)</f>
-        <v>3.972</v>
+        <v>56.36</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3025,21 +3056,21 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3.87</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="D11">
-        <v>14848</v>
+        <v>2528</v>
       </c>
       <c r="I11">
         <v>9</v>
       </c>
       <c r="J11">
         <f>AVERAGE(C47:C51)</f>
-        <v>0.16599999999999998</v>
+        <v>1.4000000000000002E-2</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3050,21 +3081,21 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>148.63999999999999</v>
+        <v>16.75</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
       <c r="J12">
         <f>AVERAGE(C52:C56)</f>
-        <v>162.96800000000002</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>759</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3075,21 +3106,21 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>157.29</v>
+        <v>16.75</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>11</v>
       </c>
       <c r="J13">
         <f>AVERAGE(C57:C61)</f>
-        <v>17.566000000000003</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>3485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3100,10 +3131,21 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>148.9</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGE(C62:C66)</f>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>2604</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3114,10 +3156,21 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>153.5</v>
+        <v>16.78</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <f>AVERAGE(C67:C71)</f>
+        <v>34.242000000000004</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3128,10 +3181,10 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>157.52000000000001</v>
+        <v>16.75</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3142,10 +3195,10 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>21.98</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3156,10 +3209,10 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>25.69</v>
+        <v>0.01</v>
       </c>
       <c r="D18">
-        <v>352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3170,10 +3223,10 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>22.02</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3184,10 +3237,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>30.08</v>
+        <v>0.01</v>
       </c>
       <c r="D20">
-        <v>352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3198,10 +3251,10 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>21.24</v>
+        <v>0.01</v>
       </c>
       <c r="D21">
-        <v>352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3212,10 +3265,10 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>300.19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
+        <v>0.01</v>
+      </c>
+      <c r="D22">
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3226,10 +3279,10 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>300.14999999999998</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
+        <v>0.01</v>
+      </c>
+      <c r="D23">
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3240,10 +3293,10 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>300.17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
+        <v>0.01</v>
+      </c>
+      <c r="D24">
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3254,10 +3307,10 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>300.18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
+        <v>0.01</v>
+      </c>
+      <c r="D25">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3268,10 +3321,10 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>300.32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
+        <v>0.01</v>
+      </c>
+      <c r="D26">
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3282,10 +3335,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>300.33999999999997</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3296,10 +3346,7 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>300.3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
+        <v>33.979999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3310,10 +3357,7 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>300.32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
+        <v>34.090000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3324,10 +3368,7 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>300.33999999999997</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
+        <v>34.18</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3338,10 +3379,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>300.33999999999997</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3352,10 +3390,10 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>157.97</v>
+        <v>0.01</v>
       </c>
       <c r="D32">
-        <v>24701</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3366,10 +3404,10 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>157.44999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="D33">
-        <v>24701</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3380,10 +3418,10 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>153.99</v>
+        <v>0.03</v>
       </c>
       <c r="D34">
-        <v>24701</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3394,10 +3432,10 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>161.66999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="D35">
-        <v>24701</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3408,10 +3446,10 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>173.06</v>
+        <v>0.04</v>
       </c>
       <c r="D36">
-        <v>24701</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3422,10 +3460,10 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>169.2</v>
+        <v>56.55</v>
       </c>
       <c r="D37">
-        <v>24701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3436,10 +3474,10 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>165.77</v>
+        <v>55.39</v>
       </c>
       <c r="D38">
-        <v>24701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3450,10 +3488,10 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>150.38999999999999</v>
+        <v>55.1</v>
       </c>
       <c r="D39">
-        <v>24701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3464,10 +3502,10 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>180.64</v>
+        <v>55.15</v>
       </c>
       <c r="D40">
-        <v>24701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3478,10 +3516,10 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>150.94999999999999</v>
+        <v>55.24</v>
       </c>
       <c r="D41">
-        <v>24701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3492,10 +3530,10 @@
         <v>8</v>
       </c>
       <c r="C42">
-        <v>4.0199999999999996</v>
+        <v>56.33</v>
       </c>
       <c r="D42">
-        <v>70</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3506,10 +3544,10 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>3.88</v>
+        <v>56.22</v>
       </c>
       <c r="D43">
-        <v>70</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3520,10 +3558,10 @@
         <v>8</v>
       </c>
       <c r="C44">
-        <v>3.97</v>
+        <v>56.42</v>
       </c>
       <c r="D44">
-        <v>70</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3534,10 +3572,10 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <v>3.98</v>
+        <v>56.44</v>
       </c>
       <c r="D45">
-        <v>70</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3548,10 +3586,10 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>4.01</v>
+        <v>56.39</v>
       </c>
       <c r="D46">
-        <v>70</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3562,10 +3600,10 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3576,10 +3614,10 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="D48">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3590,10 +3628,10 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3604,10 +3642,10 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3618,10 +3656,10 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3632,10 +3670,10 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>300.33</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
+        <v>0.01</v>
+      </c>
+      <c r="D52">
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3646,10 +3684,10 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>300.35000000000002</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4</v>
+        <v>0.02</v>
+      </c>
+      <c r="D53">
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3660,10 +3698,10 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>147.79</v>
+        <v>0.01</v>
       </c>
       <c r="D54">
-        <v>759</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3674,10 +3712,10 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>27.08</v>
+        <v>0.01</v>
       </c>
       <c r="D55">
-        <v>759</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3688,10 +3726,10 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>39.29</v>
+        <v>0.01</v>
       </c>
       <c r="D56">
-        <v>759</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3702,10 +3740,10 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>20.12</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>3485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3716,10 +3754,10 @@
         <v>11</v>
       </c>
       <c r="C58">
-        <v>15.64</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>3485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3730,10 +3768,10 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>14.61</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>3485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3744,10 +3782,10 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>14.87</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>3485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3758,10 +3796,135 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>22.59</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>3485</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>0.13</v>
+      </c>
+      <c r="D62">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>0.13</v>
+      </c>
+      <c r="D63">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>0.13</v>
+      </c>
+      <c r="D64">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>0.13</v>
+      </c>
+      <c r="D65">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D66">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>34.090000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>34.369999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>34.6</v>
       </c>
     </row>
   </sheetData>
@@ -3773,1028 +3936,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K61"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1.51</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="K2">
-        <f>LOOKUP(I2,B:B,D:D)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0.91</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <f>AVERAGE(C7:C11)</f>
-        <v>0.64399999999999991</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K13" si="0">LOOKUP(I3,B:B,D:D)</f>
-        <v>14610</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.94</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <f>AVERAGE(C12:C16)</f>
-        <v>2.944</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1.01</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <f>AVERAGE(C17:C21)</f>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0.95</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <f>AVERAGE(C22:C26)</f>
-        <v>203.57599999999996</v>
-      </c>
-      <c r="K6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1.82</v>
-      </c>
-      <c r="D7">
-        <v>14610</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <f>AVERAGE(C27:C31)</f>
-        <v>168.29</v>
-      </c>
-      <c r="K7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0.36</v>
-      </c>
-      <c r="D8">
-        <v>14610</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <f>AVERAGE(C32:C36)</f>
-        <v>2.38</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0.34</v>
-      </c>
-      <c r="D9">
-        <v>14610</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <f>AVERAGE(C37:C41)</f>
-        <v>2.1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.36</v>
-      </c>
-      <c r="D10">
-        <v>14610</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <f>AVERAGE(C42:C46)</f>
-        <v>0.20400000000000001</v>
-      </c>
-      <c r="K10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0.34</v>
-      </c>
-      <c r="D11">
-        <v>14610</v>
-      </c>
-      <c r="I11">
-        <v>9</v>
-      </c>
-      <c r="J11">
-        <f>AVERAGE(C47:C51)</f>
-        <v>0.19399999999999998</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>4.66</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <f>AVERAGE(C52:C56)</f>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>2.48</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>11</v>
-      </c>
-      <c r="J13">
-        <f>AVERAGE(C57:C61)</f>
-        <v>10.818000000000001</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>2.54</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2.5</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2.54</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>0.27</v>
-      </c>
-      <c r="D17">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>0.06</v>
-      </c>
-      <c r="D18">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>0.06</v>
-      </c>
-      <c r="D19">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>0.06</v>
-      </c>
-      <c r="D20">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0.06</v>
-      </c>
-      <c r="D21">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>300.29000000000002</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>175.45</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>177.66</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>177.53</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>186.95</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>200.88</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>164.42</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>129.5</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>154.26</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>192.39</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>2.57</v>
-      </c>
-      <c r="D32">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>3.07</v>
-      </c>
-      <c r="D33">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>2.37</v>
-      </c>
-      <c r="D34">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>1.89</v>
-      </c>
-      <c r="D36">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>2.42</v>
-      </c>
-      <c r="D37">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D38">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>1.92</v>
-      </c>
-      <c r="D39">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>2.09</v>
-      </c>
-      <c r="D40">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41">
-        <v>7</v>
-      </c>
-      <c r="C41">
-        <v>2.02</v>
-      </c>
-      <c r="D41">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>8</v>
-      </c>
-      <c r="C42">
-        <v>0.37</v>
-      </c>
-      <c r="D42">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>0.24</v>
-      </c>
-      <c r="D43">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>0.22</v>
-      </c>
-      <c r="D44">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45">
-        <v>8</v>
-      </c>
-      <c r="C45">
-        <v>0.19</v>
-      </c>
-      <c r="D45">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>4</v>
-      </c>
-      <c r="B46">
-        <v>8</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0</v>
-      </c>
-      <c r="B47">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>9</v>
-      </c>
-      <c r="C48">
-        <v>0.1</v>
-      </c>
-      <c r="D48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>9</v>
-      </c>
-      <c r="C49">
-        <v>0.1</v>
-      </c>
-      <c r="D49">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>3</v>
-      </c>
-      <c r="B50">
-        <v>9</v>
-      </c>
-      <c r="C50">
-        <v>0.06</v>
-      </c>
-      <c r="D50">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>4</v>
-      </c>
-      <c r="B51">
-        <v>9</v>
-      </c>
-      <c r="C51">
-        <v>0.13</v>
-      </c>
-      <c r="D51">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>0</v>
-      </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="C52">
-        <v>0.19</v>
-      </c>
-      <c r="D52">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>10</v>
-      </c>
-      <c r="C53">
-        <v>0.26</v>
-      </c>
-      <c r="D53">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>10</v>
-      </c>
-      <c r="C54">
-        <v>0.22</v>
-      </c>
-      <c r="D54">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>3</v>
-      </c>
-      <c r="B55">
-        <v>10</v>
-      </c>
-      <c r="C55">
-        <v>0.2</v>
-      </c>
-      <c r="D55">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>4</v>
-      </c>
-      <c r="B56">
-        <v>10</v>
-      </c>
-      <c r="C56">
-        <v>0.23</v>
-      </c>
-      <c r="D56">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>0</v>
-      </c>
-      <c r="B57">
-        <v>11</v>
-      </c>
-      <c r="C57">
-        <v>10.93</v>
-      </c>
-      <c r="D57">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58">
-        <v>11</v>
-      </c>
-      <c r="C58">
-        <v>10.79</v>
-      </c>
-      <c r="D58">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59">
-        <v>11</v>
-      </c>
-      <c r="C59">
-        <v>10.98</v>
-      </c>
-      <c r="D59">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>3</v>
-      </c>
-      <c r="B60">
-        <v>11</v>
-      </c>
-      <c r="C60">
-        <v>10.71</v>
-      </c>
-      <c r="D60">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>4</v>
-      </c>
-      <c r="B61">
-        <v>11</v>
-      </c>
-      <c r="C61">
-        <v>10.68</v>
-      </c>
-      <c r="D61">
-        <v>3437</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:D60">
-    <sortCondition ref="B1:B60"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/analysis_lubm1000.xlsx
+++ b/analysis_lubm1000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19155" windowHeight="12525" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19155" windowHeight="12525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stardog_lubm1000" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="10">
   <si>
     <t>iteration</t>
   </si>
@@ -50,12 +50,27 @@
   <si>
     <t>average response time</t>
   </si>
+  <si>
+    <t>no result</t>
+  </si>
+  <si>
+    <t>Virtuoso 22026 Error SR319: Max row length is exceeded when trying to store a string of 71 chars into a temp col</t>
+  </si>
+  <si>
+    <t>emtpy</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +202,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -533,11 +555,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -818,12 +841,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>stardog_lubm1000!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115.124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300.31200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>264.08000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>230.39800000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.003999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.89400000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,11 +900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="81685504"/>
-        <c:axId val="164525952"/>
+        <c:axId val="40900480"/>
+        <c:axId val="41946496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81685504"/>
+        <c:axId val="40900480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164525952"/>
+        <c:crossAx val="41946496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164525952"/>
+        <c:axId val="41946496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,7 +933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81685504"/>
+        <c:crossAx val="40900480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1117,12 +1179,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>stardog_lubm1000!$K$2:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7790</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>272982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,11 +1238,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="295578240"/>
-        <c:axId val="295867136"/>
+        <c:axId val="69528576"/>
+        <c:axId val="170312448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="295578240"/>
+        <c:axId val="69528576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295867136"/>
+        <c:crossAx val="170312448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1159,7 +1260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295867136"/>
+        <c:axId val="170312448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1172,7 +1273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295578240"/>
+        <c:crossAx val="69528576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1550,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:K16"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.93</v>
+        <v>1.25</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -1607,7 +1708,7 @@
       </c>
       <c r="J2">
         <f>AVERAGE(C2:C6)</f>
-        <v>1.0059999999999998</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="K2">
         <f>LOOKUP(I2,B:B,D:D)</f>
@@ -1622,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02</v>
+        <v>1.42</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -1632,10 +1733,10 @@
       </c>
       <c r="J3">
         <f>AVERAGE(C7:C11)</f>
-        <v>44.277999999999999</v>
+        <v>115.124</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K16" si="0">LOOKUP(I3,B:B,D:D)</f>
+        <f t="shared" ref="K3:K15" si="0">LOOKUP(I3,B:B,D:D)</f>
         <v>2528</v>
       </c>
     </row>
@@ -1647,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04</v>
+        <v>0.68</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1657,7 +1758,7 @@
       </c>
       <c r="J4">
         <f>AVERAGE(C12:C16)</f>
-        <v>0.03</v>
+        <v>4.1999999999999996E-2</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -1672,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1682,11 +1783,11 @@
       </c>
       <c r="J5">
         <f>AVERAGE(C17:C21)</f>
-        <v>0.15399999999999997</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1697,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1707,7 +1808,7 @@
       </c>
       <c r="J6">
         <f>AVERAGE(C22:C26)</f>
-        <v>0.26799999999999996</v>
+        <v>0.41</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
@@ -1722,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>199.06</v>
+        <v>8.67</v>
       </c>
       <c r="D7">
         <v>2528</v>
@@ -1732,7 +1833,7 @@
       </c>
       <c r="J7">
         <f>AVERAGE(C27:C31)</f>
-        <v>517.41000000000008</v>
+        <v>300.31200000000001</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -1747,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>5.56</v>
+        <v>247.07</v>
       </c>
       <c r="D8">
         <v>2528</v>
@@ -1757,11 +1858,11 @@
       </c>
       <c r="J8">
         <f>AVERAGE(C32:C36)</f>
-        <v>65.027999999999992</v>
+        <v>264.08000000000004</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1772,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>5.73</v>
+        <v>214.76</v>
       </c>
       <c r="D9">
         <v>2528</v>
@@ -1782,7 +1883,7 @@
       </c>
       <c r="J9">
         <f>AVERAGE(C37:C41)</f>
-        <v>18.974</v>
+        <v>230.39800000000005</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
@@ -1797,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>5.54</v>
+        <v>5.34</v>
       </c>
       <c r="D10">
         <v>2528</v>
@@ -1807,7 +1908,7 @@
       </c>
       <c r="J10">
         <f>AVERAGE(C42:C46)</f>
-        <v>18.603999999999999</v>
+        <v>43.003999999999998</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
@@ -1822,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>99.78</v>
       </c>
       <c r="D11">
         <v>2528</v>
@@ -1832,11 +1933,11 @@
       </c>
       <c r="J11">
         <f>AVERAGE(C47:C51)</f>
-        <v>40.308</v>
+        <v>229.89400000000001</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1847,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -1857,11 +1958,11 @@
       </c>
       <c r="J12">
         <f>AVERAGE(C52:C56)</f>
-        <v>38.582000000000001</v>
+        <v>38.94</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1872,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1882,11 +1983,11 @@
       </c>
       <c r="J13">
         <f>AVERAGE(C57:C61)</f>
-        <v>0.11400000000000002</v>
+        <v>17.286000000000001</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1897,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1907,11 +2008,11 @@
       </c>
       <c r="J14">
         <f>AVERAGE(C62:C66)</f>
-        <v>6.83</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1932,7 +2033,7 @@
       </c>
       <c r="J15">
         <f>AVERAGE(C67:C71)</f>
-        <v>0.02</v>
+        <v>49.384</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
@@ -1947,24 +2048,13 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
-      <c r="I16">
-        <v>14</v>
-      </c>
-      <c r="J16">
-        <f>AVERAGE(C72:C76)</f>
-        <v>43.42</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1972,13 +2062,13 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.44</v>
+        <v>0.26</v>
       </c>
       <c r="D17">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1986,13 +2076,13 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0.09</v>
+        <v>0.47</v>
       </c>
       <c r="D18">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2000,13 +2090,13 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
       <c r="D19">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2014,13 +2104,13 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="D20">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2030,11 +2120,12 @@
       <c r="C21">
         <v>0.08</v>
       </c>
-      <c r="D21">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2042,13 +2133,15 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.67</v>
+        <v>0.35</v>
       </c>
       <c r="D22">
         <v>719</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2056,13 +2149,15 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0.17</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D23">
         <v>719</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2070,13 +2165,15 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
       <c r="D24">
         <v>719</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2084,13 +2181,15 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="D25">
         <v>719</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2098,13 +2197,15 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>0.16</v>
+        <v>0.53</v>
       </c>
       <c r="D26">
         <v>719</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2112,10 +2213,16 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>300.39999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.31</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2123,10 +2230,16 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>554.63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2134,10 +2247,16 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>562.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.31</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2145,10 +2264,16 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>588.57000000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2156,10 +2281,16 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>581.04999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.33999999999997</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2167,13 +2298,15 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>125.12</v>
+        <v>119.05</v>
       </c>
       <c r="D32">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2181,13 +2314,16 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>46.31</v>
-      </c>
-      <c r="D33">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.33</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2195,13 +2331,16 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>54.5</v>
-      </c>
-      <c r="D34">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.31</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2209,13 +2348,16 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>55</v>
-      </c>
-      <c r="D35">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.3</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2223,13 +2365,16 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>44.21</v>
-      </c>
-      <c r="D36">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.41000000000003</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2237,13 +2382,15 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>33.25</v>
+        <v>41.54</v>
       </c>
       <c r="D37">
         <v>7790</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2251,13 +2398,16 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>16.11</v>
-      </c>
-      <c r="D38">
-        <v>7790</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.29000000000002</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2265,13 +2415,16 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>15.1</v>
-      </c>
-      <c r="D39">
-        <v>7790</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.29000000000002</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2279,13 +2432,16 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>14.82</v>
-      </c>
-      <c r="D40">
-        <v>7790</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.43</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2293,13 +2449,15 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>15.59</v>
+        <v>209.44</v>
       </c>
       <c r="D41">
         <v>7790</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2307,13 +2465,15 @@
         <v>8</v>
       </c>
       <c r="C42">
-        <v>36.869999999999997</v>
+        <v>31.84</v>
       </c>
       <c r="D42">
         <v>272982</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2321,13 +2481,15 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>13.04</v>
+        <v>32.96</v>
       </c>
       <c r="D43">
         <v>272982</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2335,13 +2497,15 @@
         <v>8</v>
       </c>
       <c r="C44">
-        <v>14.02</v>
+        <v>77.39</v>
       </c>
       <c r="D44">
         <v>272982</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2349,13 +2513,15 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>49.82</v>
       </c>
       <c r="D45">
         <v>272982</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -2363,13 +2529,15 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>15.09</v>
+        <v>23.01</v>
       </c>
       <c r="D46">
         <v>272982</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -2377,13 +2545,14 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <v>33.020000000000003</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157.25</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2391,13 +2560,14 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>42.57</v>
-      </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>169.75</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2405,13 +2575,16 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>39.979999999999997</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.29000000000002</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2419,13 +2592,16 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>41.79</v>
-      </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.88</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2433,13 +2609,14 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>44.18</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221.3</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2447,13 +2624,15 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>31.21</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2461,13 +2640,15 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>37.01</v>
+        <v>12.45</v>
       </c>
       <c r="D53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2475,13 +2656,15 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>40.67</v>
+        <v>139.65</v>
       </c>
       <c r="D54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2489,13 +2672,15 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>40.04</v>
+        <v>41.33</v>
       </c>
       <c r="D55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2503,13 +2688,14 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>43.98</v>
-      </c>
-      <c r="D56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.99</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -2517,13 +2703,15 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>0.39</v>
+        <v>22.42</v>
       </c>
       <c r="D57">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2531,13 +2719,15 @@
         <v>11</v>
       </c>
       <c r="C58">
-        <v>0.05</v>
+        <v>4.92</v>
       </c>
       <c r="D58">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2545,13 +2735,15 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>0.05</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="D59">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2559,13 +2751,14 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>0.04</v>
-      </c>
-      <c r="D60">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -2573,13 +2766,15 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>0.04</v>
+        <v>49.1</v>
       </c>
       <c r="D61">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -2587,13 +2782,17 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>5.37</v>
+        <v>0.02</v>
       </c>
       <c r="D62">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2601,13 +2800,17 @@
         <v>12</v>
       </c>
       <c r="C63">
-        <v>7.26</v>
+        <v>0.03</v>
       </c>
       <c r="D63">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2615,13 +2818,17 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>7.29</v>
+        <v>0.03</v>
       </c>
       <c r="D64">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2629,13 +2836,14 @@
         <v>12</v>
       </c>
       <c r="C65">
-        <v>7.12</v>
-      </c>
-      <c r="D65">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -2643,13 +2851,17 @@
         <v>12</v>
       </c>
       <c r="C66">
-        <v>7.11</v>
+        <v>0.04</v>
       </c>
       <c r="D66">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -2657,13 +2869,12 @@
         <v>13</v>
       </c>
       <c r="C67">
-        <v>0.02</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55.85</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2671,13 +2882,12 @@
         <v>13</v>
       </c>
       <c r="C68">
-        <v>0.02</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48.93</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2685,13 +2895,12 @@
         <v>13</v>
       </c>
       <c r="C69">
-        <v>0.02</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42.45</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2699,13 +2908,12 @@
         <v>13</v>
       </c>
       <c r="C70">
-        <v>0.02</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -2713,72 +2921,17 @@
         <v>13</v>
       </c>
       <c r="C71">
-        <v>0.02</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>0</v>
-      </c>
-      <c r="B72">
-        <v>14</v>
-      </c>
-      <c r="C72">
-        <v>52.14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73">
-        <v>14</v>
-      </c>
-      <c r="C73">
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74">
-        <v>14</v>
-      </c>
-      <c r="C74">
-        <v>41.18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>3</v>
-      </c>
-      <c r="B75">
-        <v>14</v>
-      </c>
-      <c r="C75">
-        <v>41.08</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>4</v>
-      </c>
-      <c r="B76">
-        <v>14</v>
-      </c>
-      <c r="C76">
-        <v>41.8</v>
-      </c>
+        <v>38.69</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A1:D60">
     <sortCondition ref="B1:B60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2786,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2869,7 +3022,7 @@
         <v>39.5</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K16" si="0">LOOKUP(I3,B:B,D:D)</f>
+        <f t="shared" ref="K3:K15" si="0">LOOKUP(I3,B:B,D:D)</f>
         <v>2528</v>
       </c>
     </row>
@@ -3187,7 +3340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3200,8 +3353,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3214,8 +3370,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3228,8 +3387,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3242,8 +3404,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3256,8 +3421,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3270,8 +3438,9 @@
       <c r="D22">
         <v>146</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3284,8 +3453,9 @@
       <c r="D23">
         <v>146</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3298,8 +3468,9 @@
       <c r="D24">
         <v>146</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3312,8 +3483,9 @@
       <c r="D25">
         <v>146</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3326,8 +3498,9 @@
       <c r="D26">
         <v>146</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3337,8 +3510,11 @@
       <c r="C27">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3348,8 +3524,11 @@
       <c r="C28">
         <v>33.979999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3359,8 +3538,11 @@
       <c r="C29">
         <v>34.090000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3370,8 +3552,11 @@
       <c r="C30">
         <v>34.18</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3381,8 +3566,11 @@
       <c r="C31">
         <v>34.299999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -3395,8 +3583,9 @@
       <c r="D32">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3409,8 +3598,9 @@
       <c r="D33">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3423,8 +3613,9 @@
       <c r="D34">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3437,8 +3628,9 @@
       <c r="D35">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3451,8 +3643,9 @@
       <c r="D36">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3465,8 +3658,11 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3479,8 +3675,11 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3493,8 +3692,11 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3507,8 +3709,11 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3521,8 +3726,11 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3535,8 +3743,9 @@
       <c r="D42">
         <v>100000</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3549,8 +3758,9 @@
       <c r="D43">
         <v>100000</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3563,8 +3773,9 @@
       <c r="D44">
         <v>100000</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3577,8 +3788,9 @@
       <c r="D45">
         <v>100000</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3591,8 +3803,9 @@
       <c r="D46">
         <v>100000</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3605,8 +3818,11 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3619,8 +3835,11 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -3633,8 +3852,11 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3647,8 +3869,11 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -3661,8 +3886,11 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3675,8 +3903,9 @@
       <c r="D52">
         <v>224</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3689,8 +3918,9 @@
       <c r="D53">
         <v>224</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3703,8 +3933,9 @@
       <c r="D54">
         <v>224</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3717,8 +3948,9 @@
       <c r="D55">
         <v>224</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -3731,8 +3963,9 @@
       <c r="D56">
         <v>224</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -3745,8 +3978,11 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3759,8 +3995,11 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3773,8 +4012,11 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -3787,8 +4029,11 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -3801,8 +4046,11 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -3815,8 +4063,9 @@
       <c r="D62">
         <v>2604</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3829,8 +4078,9 @@
       <c r="D63">
         <v>2604</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -3843,8 +4093,9 @@
       <c r="D64">
         <v>2604</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -3857,8 +4108,9 @@
       <c r="D65">
         <v>2604</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -3871,8 +4123,9 @@
       <c r="D66">
         <v>2604</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -3882,8 +4135,11 @@
       <c r="C67">
         <v>34.090000000000003</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3893,8 +4149,11 @@
       <c r="C68">
         <v>34</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3904,8 +4163,11 @@
       <c r="C69">
         <v>34.15</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3915,8 +4177,11 @@
       <c r="C70">
         <v>34.369999999999997</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -3925,6 +4190,9 @@
       </c>
       <c r="C71">
         <v>34.6</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3939,7 +4207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>

--- a/analysis_lubm1000.xlsx
+++ b/analysis_lubm1000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19155" windowHeight="12525" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19155" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stardog_lubm1000" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="12">
   <si>
     <t>iteration</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>timeout</t>
+  </si>
+  <si>
+    <t>distinct issue</t>
+  </si>
+  <si>
+    <t>implicit subclass relationship</t>
   </si>
 </sst>
 </file>
@@ -1653,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,8 +2945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3340,7 +3346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3356,8 +3362,11 @@
       <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3373,8 +3382,11 @@
       <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3390,8 +3402,11 @@
       <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3407,8 +3422,11 @@
       <c r="F20" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3424,8 +3442,11 @@
       <c r="F21" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3440,7 +3461,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3455,7 +3476,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3470,7 +3491,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3485,7 +3506,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3500,7 +3521,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3514,7 +3535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3528,7 +3549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3542,7 +3563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3556,7 +3577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3570,7 +3591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -3585,7 +3606,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3600,7 +3621,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3615,7 +3636,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3630,7 +3651,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3645,7 +3666,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3661,8 +3682,11 @@
       <c r="F37" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3678,8 +3702,11 @@
       <c r="F38" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3695,8 +3722,11 @@
       <c r="F39" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3712,8 +3742,11 @@
       <c r="F40" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3729,8 +3762,11 @@
       <c r="F41" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3745,7 +3781,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3760,7 +3796,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3775,7 +3811,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3790,7 +3826,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3805,7 +3841,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3821,8 +3857,11 @@
       <c r="F47" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3838,8 +3877,11 @@
       <c r="F48" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -3855,8 +3897,11 @@
       <c r="F49" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3872,8 +3917,11 @@
       <c r="F50" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -3889,8 +3937,11 @@
       <c r="F51" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3905,7 +3956,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3920,7 +3971,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3935,7 +3986,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3950,7 +4001,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -3965,7 +4016,7 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -3982,7 +4033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3999,7 +4050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -4016,7 +4067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -4033,7 +4084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -4050,7 +4101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -4065,7 +4116,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -4080,7 +4131,7 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -4207,7 +4258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
